--- a/sw stats/ubuntu software stats.xlsx
+++ b/sw stats/ubuntu software stats.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Apt" sheetId="3" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="90">
   <si>
     <t>Adobe Reader</t>
   </si>
@@ -297,6 +297,9 @@
   </si>
   <si>
     <t>Quota</t>
+  </si>
+  <si>
+    <t>gdb</t>
   </si>
 </sst>
 </file>
@@ -710,10 +713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -930,6 +933,11 @@
       </c>
       <c r="E30" t="s">
         <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1105,7 +1113,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>

--- a/sw stats/ubuntu software stats.xlsx
+++ b/sw stats/ubuntu software stats.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Apt" sheetId="3" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="91">
   <si>
     <t>Adobe Reader</t>
   </si>
@@ -300,6 +300,9 @@
   </si>
   <si>
     <t>gdb</t>
+  </si>
+  <si>
+    <t>https://mega.nz/linux/MEGAsync/xUbuntu_17.04/i386/megasync-dbg_4.2.5+1.1_i386.deb</t>
   </si>
 </sst>
 </file>
@@ -715,8 +718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -949,8 +952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1113,8 +1116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="E6" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1245,42 +1248,45 @@
         <v>81</v>
       </c>
     </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E33" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="F33" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E34" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E35" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="36" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E36" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="37" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E37" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="38" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E38" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="39" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E39" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="40" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="5:6" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
